--- a/[2분반]2014136013, 2015136073_김동준,양한솔_마이크로프로세서 및 실습_재료구매신청서.xlsx
+++ b/[2분반]2014136013, 2015136073_김동준,양한솔_마이크로프로세서 및 실습_재료구매신청서.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>http://storefarm.naver.com/neato/products/288735278?NaPm=ct%3Ditmxs5dc%7Cci%3Dc5407c0f97494ab610c294d7bfe49bae1f3da77c%7Ctr%3Dslsl%7Csn%3D181645%7Cic%3D%7Chk%3D2c5e8746380d1e2bcd47dc4b2311174a321bhttp://storefarm.naver.com/neato/products/288735278?NaPm=ct%3Ditmxs5dc%7Cci%3Dc5407c0f97494ab610c294d7bfe49bae1f3da77c%7Ctr%3Dslsl%7Csn%3D181645%7Cic%3D%7Chk%3D2c5e8746380d1e2bcd47dc4b2311174a321b20fd</x:t>
   </x:si>
@@ -33,6 +33,18 @@
     <x:t>수량(EA)</x:t>
   </x:si>
   <x:si>
+    <x:t>보유 재료 3번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>보유 재료 8번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>L293D 아두이노 모터 제어 쉴드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>두 재료중 하나를 얻고 싶습니다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>아두이노 초음파 센서 HC-SR04</x:t>
   </x:si>
   <x:si>
@@ -94,6 +106,9 @@
   </x:si>
   <x:si>
     <x:t>http://parts-kits.com/shop/goods/goods_view.php?goodsno=123&amp;inflow=naver&amp;NaPm=ct%3Ditmytcvk%7Cci%3Dd78a6d6b4fdeb2ae5a972f85760b048c2191ef9e%7Ctr%3Dslsl%7Csn%3D298972%7Chk%3D1913d3e8deb45822bfed9e9fd17b9ab183aa3a48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>arduino motor shield</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -321,7 +336,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="12">
+  <x:cellXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -464,6 +479,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -1188,8 +1216,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:G17"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="G7" activeCellId="0" sqref="G7:G7"/>
+    <x:sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="F12" activeCellId="0" sqref="F12:F13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.399999999999999"/>
@@ -1203,10 +1231,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:7">
       <x:c r="A1" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B1" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C1" s="7"/>
       <x:c r="D1" s="7"/>
@@ -1216,7 +1244,7 @@
     </x:row>
     <x:row r="2" spans="1:7">
       <x:c r="A2" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B2" s="6">
         <x:v>2</x:v>
@@ -1229,10 +1257,10 @@
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="A3" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B3" s="6" t="s">
-        <x:v>14</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C3" s="7"/>
       <x:c r="D3" s="7"/>
@@ -1242,10 +1270,10 @@
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="A4" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B4" s="6" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C4" s="7"/>
       <x:c r="D4" s="7"/>
@@ -1255,10 +1283,10 @@
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="A5" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B5" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C5" s="7"/>
       <x:c r="D5" s="7"/>
@@ -1268,25 +1296,25 @@
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="A6" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F6" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:7" ht="69.099999999999994">
@@ -1306,7 +1334,7 @@
         <x:v>8858</x:v>
       </x:c>
       <x:c r="F7" s="10" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="G7" s="2"/>
     </x:row>
@@ -1315,7 +1343,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C8" s="2">
         <x:v>12800</x:v>
@@ -1336,7 +1364,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C9" s="2">
         <x:v>10200</x:v>
@@ -1357,7 +1385,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C10" s="2">
         <x:v>5600</x:v>
@@ -1369,7 +1397,7 @@
         <x:v>22400</x:v>
       </x:c>
       <x:c r="F10" s="11" t="s">
-        <x:v>26</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G10" s="2"/>
     </x:row>
@@ -1378,7 +1406,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C11" s="2">
         <x:v>14000</x:v>
@@ -1394,22 +1422,36 @@
       </x:c>
       <x:c r="G11" s="2"/>
     </x:row>
-    <x:row r="12" spans="1:7">
+    <x:row r="12" spans="1:7" customHeight="1">
       <x:c r="A12" s="2"/>
-      <x:c r="B12" s="2"/>
-      <x:c r="C12" s="2"/>
-      <x:c r="D12" s="2"/>
+      <x:c r="B12" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D12" s="2">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="E12" s="2"/>
-      <x:c r="F12" s="2"/>
+      <x:c r="F12" s="12" t="s">
+        <x:v>9</x:v>
+      </x:c>
       <x:c r="G12" s="2"/>
     </x:row>
     <x:row r="13" spans="1:7">
       <x:c r="A13" s="2"/>
-      <x:c r="B13" s="2"/>
-      <x:c r="C13" s="2"/>
-      <x:c r="D13" s="2"/>
+      <x:c r="B13" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D13" s="2">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="E13" s="2"/>
-      <x:c r="F13" s="2"/>
+      <x:c r="F13" s="12"/>
       <x:c r="G13" s="2"/>
     </x:row>
     <x:row r="14" spans="1:7">
@@ -1454,12 +1496,13 @@
       <x:c r="G17" s="2"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="5">
+  <x:mergeCells count="6">
     <x:mergeCell ref="B5:G5"/>
     <x:mergeCell ref="B3:G3"/>
     <x:mergeCell ref="B2:G2"/>
     <x:mergeCell ref="B4:G4"/>
     <x:mergeCell ref="B1:G1"/>
+    <x:mergeCell ref="F12:F13"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="F7:F7" r:id="rId1" tooltip="http://item2.gmarket.co.kr/Item/detailview/Item.aspx?goodscode=708814332&amp;GoodsSale=Y&amp;jaehuid=200001169&amp;NaPm=ct%3Ditmyaes0%7Cci%3D4f84032e35ea9a6d3a5356e08acf1b75ba856b8f%7Ctr%3Dsls%7Csn%3D24%7Chk%3Dbd7c297f78bfa62a8c4cd8fe4abd25effe3288f4"/>

--- a/[2분반]2014136013, 2015136073_김동준,양한솔_마이크로프로세서 및 실습_재료구매신청서.xlsx
+++ b/[2분반]2014136013, 2015136073_김동준,양한솔_마이크로프로세서 및 실습_재료구매신청서.xlsx
@@ -5,30 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2014136013-2015136073\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>http://storefarm.naver.com/neato/products/288735278?NaPm=ct%3Ditmxs5dc%7Cci%3Dc5407c0f97494ab610c294d7bfe49bae1f3da77c%7Ctr%3Dslsl%7Csn%3D181645%7Cic%3D%7Chk%3D2c5e8746380d1e2bcd47dc4b2311174a321bhttp://storefarm.naver.com/neato/products/288735278?NaPm=ct%3Ditmxs5dc%7Cci%3Dc5407c0f97494ab610c294d7bfe49bae1f3da77c%7Ctr%3Dslsl%7Csn%3D181645%7Cic%3D%7Chk%3D2c5e8746380d1e2bcd47dc4b2311174a321b20fd</t>
-  </si>
-  <si>
-    <t>http://storefarm.naver.com/3dp/products/259734126?NaPm=ct%3Ditmxy0sg%7Cci%3De410e2de0716de3d46c2e9ef6c486c27ad06255b%7Ctr%3Dsls%7Csn%3D255282%7Chk%3D03926db0867384fd5000ba261eb92ddcb2990b54</t>
-  </si>
-  <si>
-    <t>http://storefarm.naver.com/domekit/products/288921715?NaPm=ct%3Ditmxnr6w%7Cci%3D4fb69dc23d9bf535c50d789d61f61efb909bc1e7%7Ctr%3Dsls%7Csn%3D278114%7Chk%3Dc8e6d79595be267d58b0022d9fa9c8c583677ba6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>치약 짜개</t>
   </si>
@@ -48,27 +39,12 @@
     <t>L293D 아두이노 모터 제어 쉴드</t>
   </si>
   <si>
-    <t>두 재료중 하나를 얻고 싶습니다.</t>
-  </si>
-  <si>
-    <t>아두이노 초음파 센서 HC-SR04</t>
-  </si>
-  <si>
     <t>http://item2.gmarket.co.kr/Item/detailview/Item.aspx?goodscode=708814332&amp;GoodsSale=Y&amp;jaehuid=200001169&amp;NaPm=ct%3Ditmyaes0%7Cci%3D4f84032e35ea9a6d3a5356e08acf1b75ba856b8f%7Ctr%3Dsls%7Csn%3D24%7Chk%3Dbd7c297f78bfa62a8c4cd8fe4abd25effe3288f4</t>
   </si>
   <si>
     <t>김동준 , 양한솔</t>
   </si>
   <si>
-    <t>DC직류 수중펌프</t>
-  </si>
-  <si>
-    <t>8*8 도트 매트릭스</t>
-  </si>
-  <si>
-    <t>네마17 스테핑 모터</t>
-  </si>
-  <si>
     <t>HEALTH TEETH</t>
   </si>
   <si>
@@ -109,9 +85,6 @@
   </si>
   <si>
     <t>분반</t>
-  </si>
-  <si>
-    <t>http://parts-kits.com/shop/goods/goods_view.php?goodsno=123&amp;inflow=naver&amp;NaPm=ct%3Ditmytcvk%7Cci%3Dd78a6d6b4fdeb2ae5a972f85760b048c2191ef9e%7Ctr%3Dslsl%7Csn%3D298972%7Chk%3D1913d3e8deb45822bfed9e9fd17b9ab183aa3a48</t>
   </si>
   <si>
     <t>arduino motor shield</t>
@@ -122,14 +95,65 @@
   </si>
   <si>
     <t>전에 2분반도 나눠드렸는데</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1323064</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>초소형 초음파 거리센서 모듈</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC워터펌프모터(NPM-4)-12V</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1089581</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테핑모터(23HS2055-01)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1321927</t>
+  </si>
+  <si>
+    <t>그래픽 LCD ABG128064A23-BIW-R</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1084466</t>
+  </si>
+  <si>
+    <t>두 재료중 하나를 얻고 싶습니다.</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC모터 속도조절기(DMC-10)</t>
+  </si>
+  <si>
+    <t>http://www.devicemart.co.kr/1089592</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>실리콘호스</t>
+  </si>
+  <si>
+    <t>http://storefarm.naver.com/siliconehose/products/278712320?NaPm=ct%3Diuf6c3ug%7Cci%3Dfb2f8d77756a609f9910c438b86c6a74bc75d7ba%7Ctr%3Dsls%7Csn%3D254263%7Chk%3D481e3a06238a5bce78f97e1273fbe024d1df47a9</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DC 워터펌트모터에 맞는 전원 아답터를 알려주시면 감사하겠습니다.</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,6 +196,36 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF444444"/>
+      <name val="Dotum"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF313131"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -192,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -252,28 +306,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -289,19 +374,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -575,13 +691,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
@@ -591,296 +707,311 @@
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="14">
+        <v>2</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19.5">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4429</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>8858</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9800</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9800</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3800</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>19000</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>19000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18000</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.350000000000001" customHeight="1">
+      <c r="A12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11">
+        <v>18000</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11">
+        <v>18000</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
-        <v>4429</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8858</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5">
-        <v>12800</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="E15" s="2">
+        <v>7500</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
-        <v>12800</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10200</v>
-      </c>
-      <c r="D9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5">
-        <v>30600</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>4</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5600</v>
-      </c>
-      <c r="D10" s="5">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5">
-        <v>22400</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="5">
-        <v>14000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>14000</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="4">
-        <f>SUM(E7,E8,E9,E10,E11)</f>
-        <v>88658</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="E16" s="1">
+        <v>100158</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" tooltip="http://item2.gmarket.co.kr/Item/detailview/Item.aspx?goodscode=708814332&amp;GoodsSale=Y&amp;jaehuid=200001169&amp;NaPm=ct%3Ditmyaes0%7Cci%3D4f84032e35ea9a6d3a5356e08acf1b75ba856b8f%7Ctr%3Dsls%7Csn%3D24%7Chk%3Dbd7c297f78bfa62a8c4cd8fe4abd25effe3288f4"/>
+    <hyperlink ref="F8" r:id="rId1"/>
     <hyperlink ref="F9" r:id="rId2"/>
-    <hyperlink ref="F10" r:id="rId3"/>
-    <hyperlink ref="F11" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId3" tooltip="http://item2.gmarket.co.kr/Item/detailview/Item.aspx?goodscode=708814332&amp;GoodsSale=Y&amp;jaehuid=200001169&amp;NaPm=ct%3Ditmyaes0%7Cci%3D4f84032e35ea9a6d3a5356e08acf1b75ba856b8f%7Ctr%3Dsls%7Csn%3D24%7Chk%3Dbd7c297f78bfa62a8c4cd8fe4abd25effe3288f4"/>
+    <hyperlink ref="F12" r:id="rId4"/>
+    <hyperlink ref="F15" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>